--- a/data/pca/factorExposure/factorExposure_2009-05-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01710053459346555</v>
+        <v>-0.01662873732289909</v>
       </c>
       <c r="C2">
-        <v>-0.001978267821743842</v>
+        <v>0.001237347734719789</v>
       </c>
       <c r="D2">
-        <v>0.007514232654552514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008816616754018257</v>
+      </c>
+      <c r="E2">
+        <v>-0.001214230207549715</v>
+      </c>
+      <c r="F2">
+        <v>-0.01444483100755178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08736330506585641</v>
+        <v>-0.09057730492196789</v>
       </c>
       <c r="C4">
-        <v>-0.0205851225704621</v>
+        <v>0.01579341851022143</v>
       </c>
       <c r="D4">
-        <v>0.08027986561843249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08410700849512233</v>
+      </c>
+      <c r="E4">
+        <v>-0.02894242904378868</v>
+      </c>
+      <c r="F4">
+        <v>0.03376887033775309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-3.7269934989044e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-6.694010463061407e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002436827025548407</v>
+      </c>
+      <c r="E5">
+        <v>-0.0001230261925752504</v>
+      </c>
+      <c r="F5">
+        <v>-3.474682498344668e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1567865502707386</v>
+        <v>-0.1649178422218628</v>
       </c>
       <c r="C6">
-        <v>-0.03440993751185335</v>
+        <v>0.03273806990505404</v>
       </c>
       <c r="D6">
-        <v>-0.02895356041607674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01989228831549405</v>
+      </c>
+      <c r="E6">
+        <v>-0.01347988511441667</v>
+      </c>
+      <c r="F6">
+        <v>0.03985848058831874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05713836903312951</v>
+        <v>-0.0606450944011572</v>
       </c>
       <c r="C7">
-        <v>-0.002065524719049879</v>
+        <v>-0.001305524472059886</v>
       </c>
       <c r="D7">
-        <v>0.0471324207858179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05239179368310366</v>
+      </c>
+      <c r="E7">
+        <v>-0.01462835371603315</v>
+      </c>
+      <c r="F7">
+        <v>0.04711060275415376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05850426717351535</v>
+        <v>-0.05490450278649493</v>
       </c>
       <c r="C8">
-        <v>0.009768868465330481</v>
+        <v>-0.01199935842049985</v>
       </c>
       <c r="D8">
-        <v>0.02547520254094629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03015741573956646</v>
+      </c>
+      <c r="E8">
+        <v>-0.01531674717314785</v>
+      </c>
+      <c r="F8">
+        <v>-0.02624243113428634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06833093297962767</v>
+        <v>-0.07064751045935339</v>
       </c>
       <c r="C9">
-        <v>-0.01638023928227975</v>
+        <v>0.01127152105526453</v>
       </c>
       <c r="D9">
-        <v>0.08346091553931641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08760727579987146</v>
+      </c>
+      <c r="E9">
+        <v>-0.02579374170159382</v>
+      </c>
+      <c r="F9">
+        <v>0.05023122029342052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0885590068571228</v>
+        <v>-0.08829120256308212</v>
       </c>
       <c r="C10">
-        <v>-0.01966230375570152</v>
+        <v>0.02366400115608719</v>
       </c>
       <c r="D10">
-        <v>-0.1686837516407314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.158707856922796</v>
+      </c>
+      <c r="E10">
+        <v>0.03281790293359151</v>
+      </c>
+      <c r="F10">
+        <v>-0.06003958023538066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08819673522541134</v>
+        <v>-0.08531968309321424</v>
       </c>
       <c r="C11">
-        <v>-0.01765653425149218</v>
+        <v>0.01214246189933898</v>
       </c>
       <c r="D11">
-        <v>0.1147556573899367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1198083152910065</v>
+      </c>
+      <c r="E11">
+        <v>-0.05144833188929736</v>
+      </c>
+      <c r="F11">
+        <v>0.02457469159983941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09536552705796431</v>
+        <v>-0.08985552910616661</v>
       </c>
       <c r="C12">
-        <v>-0.01638598548293248</v>
+        <v>0.01001156616268293</v>
       </c>
       <c r="D12">
-        <v>0.1215574062565102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1352989651949486</v>
+      </c>
+      <c r="E12">
+        <v>-0.05411176266963133</v>
+      </c>
+      <c r="F12">
+        <v>0.03128088618505172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04452335966103715</v>
+        <v>-0.04421615068160403</v>
       </c>
       <c r="C13">
-        <v>-0.007113068479972546</v>
+        <v>0.003538139557595804</v>
       </c>
       <c r="D13">
-        <v>0.04901059481062849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05520773675442476</v>
+      </c>
+      <c r="E13">
+        <v>-0.0008693106770444981</v>
+      </c>
+      <c r="F13">
+        <v>0.006900555404880293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01786101443456355</v>
+        <v>-0.02154655663177179</v>
       </c>
       <c r="C14">
-        <v>-0.01476987028472924</v>
+        <v>0.01358164877463131</v>
       </c>
       <c r="D14">
-        <v>0.03238279550943841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03349213101814526</v>
+      </c>
+      <c r="E14">
+        <v>-0.02082345386522037</v>
+      </c>
+      <c r="F14">
+        <v>0.01478316663384255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03448919388519708</v>
+        <v>-0.03463622873874674</v>
       </c>
       <c r="C15">
-        <v>-0.008136388094168103</v>
+        <v>0.006262864347182139</v>
       </c>
       <c r="D15">
-        <v>0.04796080077608993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0477180410118769</v>
+      </c>
+      <c r="E15">
+        <v>-0.007950346840589534</v>
+      </c>
+      <c r="F15">
+        <v>0.03080631662695353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07093348933756868</v>
+        <v>-0.06943666118021032</v>
       </c>
       <c r="C16">
-        <v>-0.007126213815294558</v>
+        <v>0.00153580846920964</v>
       </c>
       <c r="D16">
-        <v>0.1176462004733688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1299446773633042</v>
+      </c>
+      <c r="E16">
+        <v>-0.06550696901567091</v>
+      </c>
+      <c r="F16">
+        <v>0.02755013778262411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001477253181101793</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000421688766411929</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002191700611007894</v>
+      </c>
+      <c r="E17">
+        <v>-0.00185181843779827</v>
+      </c>
+      <c r="F17">
+        <v>-0.002065026629676258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02645120260501537</v>
+        <v>-0.04474871822618655</v>
       </c>
       <c r="C18">
-        <v>0.00110896890048235</v>
+        <v>-0.0008114403814253107</v>
       </c>
       <c r="D18">
-        <v>0.02299385915428188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01819647392628731</v>
+      </c>
+      <c r="E18">
+        <v>0.003986919125059497</v>
+      </c>
+      <c r="F18">
+        <v>-0.01157694464778088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06333510414103673</v>
+        <v>-0.06237171063253845</v>
       </c>
       <c r="C20">
-        <v>-0.006095892547332044</v>
+        <v>0.002134955207881501</v>
       </c>
       <c r="D20">
-        <v>0.07475048709187616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07920405837556682</v>
+      </c>
+      <c r="E20">
+        <v>-0.06238566566187242</v>
+      </c>
+      <c r="F20">
+        <v>0.02945187939212464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04037536281347585</v>
+        <v>-0.04250679986563072</v>
       </c>
       <c r="C21">
-        <v>-0.01037112946152902</v>
+        <v>0.007642239151988826</v>
       </c>
       <c r="D21">
-        <v>0.03594889115539367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03727645730796013</v>
+      </c>
+      <c r="E21">
+        <v>-0.002097158145196518</v>
+      </c>
+      <c r="F21">
+        <v>-0.0220275140429867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04166505635294657</v>
+        <v>-0.04331820197459137</v>
       </c>
       <c r="C22">
-        <v>-0.002046569856695246</v>
+        <v>0.001510124802534194</v>
       </c>
       <c r="D22">
-        <v>0.003377941301423886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0101013672956584</v>
+      </c>
+      <c r="E22">
+        <v>-0.03552427653055457</v>
+      </c>
+      <c r="F22">
+        <v>-0.05991090594743099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04162730328758062</v>
+        <v>-0.04328656778662289</v>
       </c>
       <c r="C23">
-        <v>-0.002033656806329305</v>
+        <v>0.001497897241208792</v>
       </c>
       <c r="D23">
-        <v>0.003396340687885308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01011533780749951</v>
+      </c>
+      <c r="E23">
+        <v>-0.03555200124152501</v>
+      </c>
+      <c r="F23">
+        <v>-0.05996904358715591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07901148672210041</v>
+        <v>-0.07585102371829119</v>
       </c>
       <c r="C24">
-        <v>-0.00813874793468111</v>
+        <v>0.00255412749037934</v>
       </c>
       <c r="D24">
-        <v>0.1189823768729645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1236274513383186</v>
+      </c>
+      <c r="E24">
+        <v>-0.05034219929337343</v>
+      </c>
+      <c r="F24">
+        <v>0.03156665931977042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08363875549079985</v>
+        <v>-0.0805474794167831</v>
       </c>
       <c r="C25">
-        <v>-0.01047210597199516</v>
+        <v>0.005447875440446812</v>
       </c>
       <c r="D25">
-        <v>0.1060128371659617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1110811525151438</v>
+      </c>
+      <c r="E25">
+        <v>-0.03543733735659499</v>
+      </c>
+      <c r="F25">
+        <v>0.02913670960178715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05723284245290857</v>
+        <v>-0.06103824578262755</v>
       </c>
       <c r="C26">
-        <v>-0.01878963535187871</v>
+        <v>0.01547986716691238</v>
       </c>
       <c r="D26">
-        <v>0.04048050852288026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0489334222907653</v>
+      </c>
+      <c r="E26">
+        <v>-0.02920965501691134</v>
+      </c>
+      <c r="F26">
+        <v>-0.005385007619809594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1406506201122296</v>
+        <v>-0.147836369412307</v>
       </c>
       <c r="C28">
-        <v>-0.02066616705615584</v>
+        <v>0.02758545801780788</v>
       </c>
       <c r="D28">
-        <v>-0.2608395242958012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2559089508088179</v>
+      </c>
+      <c r="E28">
+        <v>0.06331724430391608</v>
+      </c>
+      <c r="F28">
+        <v>0.006425873220508869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02496648431418874</v>
+        <v>-0.02753843364418604</v>
       </c>
       <c r="C29">
-        <v>-0.009645669893477921</v>
+        <v>0.008964841386496333</v>
       </c>
       <c r="D29">
-        <v>0.03023712483433502</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03033704274143258</v>
+      </c>
+      <c r="E29">
+        <v>-0.01663946910935159</v>
+      </c>
+      <c r="F29">
+        <v>-0.01404428788853901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05582844031811463</v>
+        <v>-0.05336793488647359</v>
       </c>
       <c r="C30">
-        <v>-0.007628579563405166</v>
+        <v>0.002634082282440301</v>
       </c>
       <c r="D30">
-        <v>0.0782885976834921</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08686238709722333</v>
+      </c>
+      <c r="E30">
+        <v>-0.01391718455572345</v>
+      </c>
+      <c r="F30">
+        <v>0.08696958576153432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0511242251563289</v>
+        <v>-0.05161800604970555</v>
       </c>
       <c r="C31">
-        <v>-0.01854070431862391</v>
+        <v>0.01687680279061855</v>
       </c>
       <c r="D31">
-        <v>0.02358859199531483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02650129118986024</v>
+      </c>
+      <c r="E31">
+        <v>-0.02901400938264903</v>
+      </c>
+      <c r="F31">
+        <v>-0.00348625193134659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04633420569273204</v>
+        <v>-0.05103894515311774</v>
       </c>
       <c r="C32">
-        <v>-0.002681653164997155</v>
+        <v>-0.0008737816842748477</v>
       </c>
       <c r="D32">
-        <v>0.03118423776474373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03576942561559385</v>
+      </c>
+      <c r="E32">
+        <v>-0.03105575477323894</v>
+      </c>
+      <c r="F32">
+        <v>0.001692980154681086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08875461381037431</v>
+        <v>-0.08913711479755372</v>
       </c>
       <c r="C33">
-        <v>-0.01421574498971728</v>
+        <v>0.008214633150172311</v>
       </c>
       <c r="D33">
-        <v>0.09288582452065575</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.105589376527712</v>
+      </c>
+      <c r="E33">
+        <v>-0.05233837101902343</v>
+      </c>
+      <c r="F33">
+        <v>0.04205794961025304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06647034812049565</v>
+        <v>-0.06521716474674738</v>
       </c>
       <c r="C34">
-        <v>-0.01584148670915776</v>
+        <v>0.01084608192088301</v>
       </c>
       <c r="D34">
-        <v>0.1003597550787074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.111841022816153</v>
+      </c>
+      <c r="E34">
+        <v>-0.03830681790645817</v>
+      </c>
+      <c r="F34">
+        <v>0.03919220741947906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02599018083940718</v>
+        <v>-0.02744699034858837</v>
       </c>
       <c r="C35">
-        <v>-0.004465116828786015</v>
+        <v>0.003906554730437565</v>
       </c>
       <c r="D35">
-        <v>0.00842064068069936</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01146816791227044</v>
+      </c>
+      <c r="E35">
+        <v>-0.01713297609773728</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002404034292417313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0236265188480566</v>
+        <v>-0.02806816446556585</v>
       </c>
       <c r="C36">
-        <v>-0.008629851252442299</v>
+        <v>0.007373660089278062</v>
       </c>
       <c r="D36">
-        <v>0.03911297268239025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04067689722790398</v>
+      </c>
+      <c r="E36">
+        <v>-0.01858093460637121</v>
+      </c>
+      <c r="F36">
+        <v>0.01585414478534343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002511989609061921</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007369977506819489</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003124757350244143</v>
+      </c>
+      <c r="E37">
+        <v>-0.000495559610053201</v>
+      </c>
+      <c r="F37">
+        <v>-0.001393636224043595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1064259215019368</v>
+        <v>-0.09636585740883843</v>
       </c>
       <c r="C39">
-        <v>-0.02335930757199215</v>
+        <v>0.01653733492678813</v>
       </c>
       <c r="D39">
-        <v>0.1522677885239728</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1530150805403199</v>
+      </c>
+      <c r="E39">
+        <v>-0.0657014776153165</v>
+      </c>
+      <c r="F39">
+        <v>0.02123370024126538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04124597373711594</v>
+        <v>-0.04677665891427855</v>
       </c>
       <c r="C40">
-        <v>-0.01083058281919116</v>
+        <v>0.009561725942364839</v>
       </c>
       <c r="D40">
-        <v>0.02690047516505427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03347800040765147</v>
+      </c>
+      <c r="E40">
+        <v>-0.00111209365795234</v>
+      </c>
+      <c r="F40">
+        <v>-0.01805224200172686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02502673159695305</v>
+        <v>-0.02768038210444063</v>
       </c>
       <c r="C41">
-        <v>-0.008071765123333886</v>
+        <v>0.007338639667649804</v>
       </c>
       <c r="D41">
-        <v>0.009049719680906744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01076687675809124</v>
+      </c>
+      <c r="E41">
+        <v>-0.01271626030352858</v>
+      </c>
+      <c r="F41">
+        <v>-0.007341966638034262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0409992270391496</v>
+        <v>-0.03964212949532932</v>
       </c>
       <c r="C43">
-        <v>-0.008856244493177319</v>
+        <v>0.008072875548434041</v>
       </c>
       <c r="D43">
-        <v>0.01941638289262934</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02119103368302344</v>
+      </c>
+      <c r="E43">
+        <v>-0.02684982001635863</v>
+      </c>
+      <c r="F43">
+        <v>-0.01619380879333938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06007276166385118</v>
+        <v>-0.07180930269908305</v>
       </c>
       <c r="C44">
-        <v>-0.02231179194386347</v>
+        <v>0.01871633168924507</v>
       </c>
       <c r="D44">
-        <v>0.08989254216217681</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08913041719884142</v>
+      </c>
+      <c r="E44">
+        <v>-0.06254637960276345</v>
+      </c>
+      <c r="F44">
+        <v>0.1688706020798048</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-3.639360500051264e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-1.559000594648851e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>6.225605667982656e-05</v>
+      </c>
+      <c r="E45">
+        <v>4.002533791363214e-05</v>
+      </c>
+      <c r="F45">
+        <v>-1.594947115226394e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02038658230963678</v>
+        <v>-0.02412221980917622</v>
       </c>
       <c r="C46">
-        <v>-0.004632233136743276</v>
+        <v>0.003634675026846119</v>
       </c>
       <c r="D46">
-        <v>0.01120443460336135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01448485454280778</v>
+      </c>
+      <c r="E46">
+        <v>-0.032491947187774</v>
+      </c>
+      <c r="F46">
+        <v>-0.006531477031057482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05407335592972836</v>
+        <v>-0.05332849067745866</v>
       </c>
       <c r="C47">
-        <v>-0.006756398079248343</v>
+        <v>0.005368164643374238</v>
       </c>
       <c r="D47">
-        <v>0.007511513339155376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01191651655148941</v>
+      </c>
+      <c r="E47">
+        <v>-0.02506529544042746</v>
+      </c>
+      <c r="F47">
+        <v>-0.03267095783756813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04868415822560654</v>
+        <v>-0.05162538739330386</v>
       </c>
       <c r="C48">
-        <v>-0.005925818512158531</v>
+        <v>0.003068250241483301</v>
       </c>
       <c r="D48">
-        <v>0.04924745620337954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05266677002324668</v>
+      </c>
+      <c r="E48">
+        <v>0.003227537229183574</v>
+      </c>
+      <c r="F48">
+        <v>0.01406884381096469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1978824045547693</v>
+        <v>-0.1995302453850704</v>
       </c>
       <c r="C49">
-        <v>-0.02698926286445434</v>
+        <v>0.02390381314094865</v>
       </c>
       <c r="D49">
-        <v>-0.008080060548548188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002504031054942678</v>
+      </c>
+      <c r="E49">
+        <v>-0.01873627598994052</v>
+      </c>
+      <c r="F49">
+        <v>0.05645551098793037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04944269720373527</v>
+        <v>-0.05201475814527177</v>
       </c>
       <c r="C50">
-        <v>-0.01422955543451489</v>
+        <v>0.0126713727560923</v>
       </c>
       <c r="D50">
-        <v>0.02426617085141652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02654838185836625</v>
+      </c>
+      <c r="E50">
+        <v>-0.03020752778516568</v>
+      </c>
+      <c r="F50">
+        <v>0.009423088796279641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1526093075261174</v>
+        <v>-0.1460779425532146</v>
       </c>
       <c r="C52">
-        <v>-0.02358874883276434</v>
+        <v>0.02067041621139982</v>
       </c>
       <c r="D52">
-        <v>0.04188396064159881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04424615435896369</v>
+      </c>
+      <c r="E52">
+        <v>-0.02852319085430662</v>
+      </c>
+      <c r="F52">
+        <v>0.03705380622305012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1752681149205163</v>
+        <v>-0.1684114214650015</v>
       </c>
       <c r="C53">
-        <v>-0.02609571595025773</v>
+        <v>0.02461805929425157</v>
       </c>
       <c r="D53">
-        <v>0.005755942256400807</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008415290602065242</v>
+      </c>
+      <c r="E53">
+        <v>-0.0357029714681267</v>
+      </c>
+      <c r="F53">
+        <v>0.0697981812476114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0146070788578191</v>
+        <v>-0.01768029181705233</v>
       </c>
       <c r="C54">
-        <v>-0.01176268978584049</v>
+        <v>0.01088272147959946</v>
       </c>
       <c r="D54">
-        <v>0.03022969816236733</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02899496956651786</v>
+      </c>
+      <c r="E54">
+        <v>-0.02053667088512277</v>
+      </c>
+      <c r="F54">
+        <v>-0.004779755473139635</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1180782775942087</v>
+        <v>-0.1158834076222885</v>
       </c>
       <c r="C55">
-        <v>-0.02228870858818749</v>
+        <v>0.02120503044922207</v>
       </c>
       <c r="D55">
-        <v>0.00421160937007966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01125472025234311</v>
+      </c>
+      <c r="E55">
+        <v>-0.03342458381394917</v>
+      </c>
+      <c r="F55">
+        <v>0.04281035810931352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1800613955098574</v>
+        <v>-0.174545730054693</v>
       </c>
       <c r="C56">
-        <v>-0.02385548108226805</v>
+        <v>0.02274241587987415</v>
       </c>
       <c r="D56">
-        <v>-0.005175051484933323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0002452301751011159</v>
+      </c>
+      <c r="E56">
+        <v>-0.03511339938686564</v>
+      </c>
+      <c r="F56">
+        <v>0.05342723118714595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04569620027571399</v>
+        <v>-0.04452875671550197</v>
       </c>
       <c r="C58">
-        <v>-0.004717081013464924</v>
+        <v>-2.458745575294729e-06</v>
       </c>
       <c r="D58">
-        <v>0.06634273067222328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07686031101402106</v>
+      </c>
+      <c r="E58">
+        <v>-0.03783574781678981</v>
+      </c>
+      <c r="F58">
+        <v>-0.03292581948163813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1647093709689961</v>
+        <v>-0.1706977141586255</v>
       </c>
       <c r="C59">
-        <v>-0.02225368129955301</v>
+        <v>0.02779120763155052</v>
       </c>
       <c r="D59">
-        <v>-0.2195444643030441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2155468529463591</v>
+      </c>
+      <c r="E59">
+        <v>0.05183438477399719</v>
+      </c>
+      <c r="F59">
+        <v>-0.0422937602476974</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2348023326284769</v>
+        <v>-0.2275091684729615</v>
       </c>
       <c r="C60">
-        <v>-0.008002786701951444</v>
+        <v>0.003574297073040045</v>
       </c>
       <c r="D60">
-        <v>0.04004504435911078</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03988227786969516</v>
+      </c>
+      <c r="E60">
+        <v>0.005161220694854718</v>
+      </c>
+      <c r="F60">
+        <v>0.008077066932654867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07672005190677121</v>
+        <v>-0.07194853920570081</v>
       </c>
       <c r="C61">
-        <v>-0.01677606220046232</v>
+        <v>0.0110232917439673</v>
       </c>
       <c r="D61">
-        <v>0.1134968508348762</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1181052282710954</v>
+      </c>
+      <c r="E61">
+        <v>-0.04292197850609752</v>
+      </c>
+      <c r="F61">
+        <v>0.01164524273305285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1722619444678627</v>
+        <v>-0.1680310035363647</v>
       </c>
       <c r="C62">
-        <v>-0.02734008752914694</v>
+        <v>0.02518503195964738</v>
       </c>
       <c r="D62">
-        <v>0.002259516864785012</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.009397344491571842</v>
+      </c>
+      <c r="E62">
+        <v>-0.03892316851217499</v>
+      </c>
+      <c r="F62">
+        <v>0.03628166076191348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0426611401170606</v>
+        <v>-0.04679562886476527</v>
       </c>
       <c r="C63">
-        <v>-0.006099943132629165</v>
+        <v>0.00301559329905547</v>
       </c>
       <c r="D63">
-        <v>0.05381395529474023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06339413528492614</v>
+      </c>
+      <c r="E63">
+        <v>-0.02442996983233873</v>
+      </c>
+      <c r="F63">
+        <v>0.003550801684026491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1139678669639125</v>
+        <v>-0.1114668314708823</v>
       </c>
       <c r="C64">
-        <v>-0.01893714758435148</v>
+        <v>0.01513063975822138</v>
       </c>
       <c r="D64">
-        <v>0.0373640239948865</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04392180411595126</v>
+      </c>
+      <c r="E64">
+        <v>-0.02823651116889955</v>
+      </c>
+      <c r="F64">
+        <v>0.02688210776165482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1478783840729124</v>
+        <v>-0.1551362008988768</v>
       </c>
       <c r="C65">
-        <v>-0.04009115656976087</v>
+        <v>0.03926552107735282</v>
       </c>
       <c r="D65">
-        <v>-0.04911728685214692</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0394639511159986</v>
+      </c>
+      <c r="E65">
+        <v>-0.007848523488771703</v>
+      </c>
+      <c r="F65">
+        <v>0.03968488082614324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1279190812350603</v>
+        <v>-0.1157087120500252</v>
       </c>
       <c r="C66">
-        <v>-0.02194463643669591</v>
+        <v>0.01474176518396105</v>
       </c>
       <c r="D66">
-        <v>0.1368423667128384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1425514766056501</v>
+      </c>
+      <c r="E66">
+        <v>-0.06881255364748604</v>
+      </c>
+      <c r="F66">
+        <v>0.02604698062878603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06291096566647843</v>
+        <v>-0.05554305381263792</v>
       </c>
       <c r="C67">
-        <v>-0.007255272240747831</v>
+        <v>0.004562959337787931</v>
       </c>
       <c r="D67">
-        <v>0.05388349340410286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05805975731129372</v>
+      </c>
+      <c r="E67">
+        <v>-0.02535873432505837</v>
+      </c>
+      <c r="F67">
+        <v>-0.04099388228173985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1130176964120445</v>
+        <v>-0.1211722785465963</v>
       </c>
       <c r="C68">
-        <v>-0.03009551923836019</v>
+        <v>0.03775485306135185</v>
       </c>
       <c r="D68">
-        <v>-0.2621178296262747</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2581598914247696</v>
+      </c>
+      <c r="E68">
+        <v>0.08602630463756936</v>
+      </c>
+      <c r="F68">
+        <v>0.006371102480849957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03962806279100359</v>
+        <v>-0.03910857647312185</v>
       </c>
       <c r="C69">
-        <v>-0.003176890945101569</v>
+        <v>0.002064633159911024</v>
       </c>
       <c r="D69">
-        <v>0.01058758779022235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01121916533736998</v>
+      </c>
+      <c r="E69">
+        <v>-0.02885898290096869</v>
+      </c>
+      <c r="F69">
+        <v>-0.002388715197641921</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06929713188297121</v>
+        <v>-0.06931636590257657</v>
       </c>
       <c r="C70">
-        <v>0.022733521815083</v>
+        <v>-0.02511716391912157</v>
       </c>
       <c r="D70">
-        <v>0.02782940170295779</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03147058729660344</v>
+      </c>
+      <c r="E70">
+        <v>0.02867201254446562</v>
+      </c>
+      <c r="F70">
+        <v>-0.196594646326063</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1320958153519639</v>
+        <v>-0.1415698809972703</v>
       </c>
       <c r="C71">
-        <v>-0.0352898469342131</v>
+        <v>0.04285606432031776</v>
       </c>
       <c r="D71">
-        <v>-0.2769997617443873</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2678427819627168</v>
+      </c>
+      <c r="E71">
+        <v>0.09700302029881545</v>
+      </c>
+      <c r="F71">
+        <v>0.01058766817657278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1390223131123459</v>
+        <v>-0.1448085180890543</v>
       </c>
       <c r="C72">
-        <v>-0.03183938436856179</v>
+        <v>0.03136961045906232</v>
       </c>
       <c r="D72">
-        <v>0.002015008259361156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0005149363074851685</v>
+      </c>
+      <c r="E72">
+        <v>-0.04183994723679223</v>
+      </c>
+      <c r="F72">
+        <v>0.02570896596623058</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1996964615266927</v>
+        <v>-0.2026957442082038</v>
       </c>
       <c r="C73">
-        <v>-0.02120651896085265</v>
+        <v>0.01688315792177242</v>
       </c>
       <c r="D73">
-        <v>0.01255674986964912</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01892063637362255</v>
+      </c>
+      <c r="E73">
+        <v>-0.06433390881537394</v>
+      </c>
+      <c r="F73">
+        <v>0.03751770975652736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0875291182235064</v>
+        <v>-0.08832938590296087</v>
       </c>
       <c r="C74">
-        <v>-0.01527175113015114</v>
+        <v>0.01411725091658681</v>
       </c>
       <c r="D74">
-        <v>0.01244146504782548</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0167520824583757</v>
+      </c>
+      <c r="E74">
+        <v>-0.04536662229797762</v>
+      </c>
+      <c r="F74">
+        <v>0.05094471093828661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1316910350698134</v>
+        <v>-0.1241060791478985</v>
       </c>
       <c r="C75">
-        <v>-0.03407483013116104</v>
+        <v>0.03141631862089088</v>
       </c>
       <c r="D75">
-        <v>0.02550565168343351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03184840580786499</v>
+      </c>
+      <c r="E75">
+        <v>-0.06043621101742718</v>
+      </c>
+      <c r="F75">
+        <v>0.01793486527167932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08114066182954613</v>
+        <v>-0.09252441686363878</v>
       </c>
       <c r="C77">
-        <v>-0.01558920070186807</v>
+        <v>0.01029364484272581</v>
       </c>
       <c r="D77">
-        <v>0.1177000863938519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1209542514673673</v>
+      </c>
+      <c r="E77">
+        <v>-0.04633521124592004</v>
+      </c>
+      <c r="F77">
+        <v>0.0328647216148333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1004618485879673</v>
+        <v>-0.1005676927114216</v>
       </c>
       <c r="C78">
-        <v>-0.04651518255302917</v>
+        <v>0.04178558611421637</v>
       </c>
       <c r="D78">
-        <v>0.1145123888246645</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1128414821976536</v>
+      </c>
+      <c r="E78">
+        <v>-0.07597078734813424</v>
+      </c>
+      <c r="F78">
+        <v>0.04470712302915512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1697313182587439</v>
+        <v>-0.1649866236536804</v>
       </c>
       <c r="C79">
-        <v>-0.03089583711100251</v>
+        <v>0.02847453814649345</v>
       </c>
       <c r="D79">
-        <v>0.01094000042490098</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01774990073165105</v>
+      </c>
+      <c r="E79">
+        <v>-0.0496046097760304</v>
+      </c>
+      <c r="F79">
+        <v>0.01066606489705535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07981934473690304</v>
+        <v>-0.07855513133313338</v>
       </c>
       <c r="C80">
-        <v>-0.003834397421784917</v>
+        <v>0.0009965853510531923</v>
       </c>
       <c r="D80">
-        <v>0.05136105311411875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0514280293151276</v>
+      </c>
+      <c r="E80">
+        <v>-0.03759415269787083</v>
+      </c>
+      <c r="F80">
+        <v>-0.03264732042849059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1181088417049632</v>
+        <v>-0.1127971338063237</v>
       </c>
       <c r="C81">
-        <v>-0.03557134812937872</v>
+        <v>0.03417955957519003</v>
       </c>
       <c r="D81">
-        <v>0.006319793760537106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01215720073042859</v>
+      </c>
+      <c r="E81">
+        <v>-0.05458723377693211</v>
+      </c>
+      <c r="F81">
+        <v>0.01483744410441911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1641116371285195</v>
+        <v>-0.1626763187563758</v>
       </c>
       <c r="C82">
-        <v>-0.0301019127815246</v>
+        <v>0.0294436678889446</v>
       </c>
       <c r="D82">
-        <v>0.005944302624062771</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004111635921162159</v>
+      </c>
+      <c r="E82">
+        <v>-0.0320274556895493</v>
+      </c>
+      <c r="F82">
+        <v>0.07861754559085225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05875095345387028</v>
+        <v>-0.0536591333813685</v>
       </c>
       <c r="C83">
-        <v>-0.006046054040848299</v>
+        <v>0.003744884004506745</v>
       </c>
       <c r="D83">
-        <v>0.03897540809942825</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04057060937501884</v>
+      </c>
+      <c r="E83">
+        <v>0.004617499581686852</v>
+      </c>
+      <c r="F83">
+        <v>-0.03710078103154161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05926244740988775</v>
+        <v>-0.0549962694247742</v>
       </c>
       <c r="C84">
-        <v>-0.01424499199303314</v>
+        <v>0.01114745252455608</v>
       </c>
       <c r="D84">
-        <v>0.07723219084318464</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07807094874112432</v>
+      </c>
+      <c r="E84">
+        <v>-0.01414361539769334</v>
+      </c>
+      <c r="F84">
+        <v>0.01598783003693656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397132336253094</v>
+        <v>-0.1345899743712163</v>
       </c>
       <c r="C85">
-        <v>-0.03373570618502084</v>
+        <v>0.0322253031261455</v>
       </c>
       <c r="D85">
-        <v>0.007774792440707406</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01135883539427787</v>
+      </c>
+      <c r="E85">
+        <v>-0.04307016148868562</v>
+      </c>
+      <c r="F85">
+        <v>0.04710149970898188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09463045016686275</v>
+        <v>-0.0886213048817389</v>
       </c>
       <c r="C86">
-        <v>0.002116986128798992</v>
+        <v>-0.005753907732902957</v>
       </c>
       <c r="D86">
-        <v>0.02515852934835573</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0570948107042681</v>
+      </c>
+      <c r="E86">
+        <v>-0.1900423793231829</v>
+      </c>
+      <c r="F86">
+        <v>-0.8979364705695085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09478681382902084</v>
+        <v>-0.09156799689317958</v>
       </c>
       <c r="C87">
-        <v>-0.03007610582203476</v>
+        <v>0.0218244661235713</v>
       </c>
       <c r="D87">
-        <v>0.07311860271905478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0902216859407171</v>
+      </c>
+      <c r="E87">
+        <v>0.06416360177661874</v>
+      </c>
+      <c r="F87">
+        <v>0.05562652393626182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06267313962055472</v>
+        <v>-0.06144189807214346</v>
       </c>
       <c r="C88">
-        <v>-0.006912442291778197</v>
+        <v>0.003812077587001469</v>
       </c>
       <c r="D88">
-        <v>0.05078873927384672</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05116610502656849</v>
+      </c>
+      <c r="E88">
+        <v>-0.02850529259059498</v>
+      </c>
+      <c r="F88">
+        <v>0.01237104770542151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1233730229774782</v>
+        <v>-0.1308172345654948</v>
       </c>
       <c r="C89">
-        <v>-0.01073711079031467</v>
+        <v>0.01785704056611244</v>
       </c>
       <c r="D89">
-        <v>-0.2381946624597888</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2404133537000556</v>
+      </c>
+      <c r="E89">
+        <v>0.08722396464749763</v>
+      </c>
+      <c r="F89">
+        <v>-0.003181630335792633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1429402277154271</v>
+        <v>-0.1564833656776707</v>
       </c>
       <c r="C90">
-        <v>-0.03131006874596149</v>
+        <v>0.03967130928087011</v>
       </c>
       <c r="D90">
-        <v>-0.2629326269309689</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2655794759837797</v>
+      </c>
+      <c r="E90">
+        <v>0.1163580774203759</v>
+      </c>
+      <c r="F90">
+        <v>-0.003270664985843403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1249509819718856</v>
+        <v>-0.1215977241194072</v>
       </c>
       <c r="C91">
-        <v>-0.02481400384924294</v>
+        <v>0.02399391652049831</v>
       </c>
       <c r="D91">
-        <v>-0.01831221874550024</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01357795951199359</v>
+      </c>
+      <c r="E91">
+        <v>-0.0585187831730448</v>
+      </c>
+      <c r="F91">
+        <v>-0.009121425760072138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1435883515127848</v>
+        <v>-0.1496098662909847</v>
       </c>
       <c r="C92">
-        <v>-0.02226739270104786</v>
+        <v>0.03068910741841477</v>
       </c>
       <c r="D92">
-        <v>-0.2904442244815976</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2905985809002719</v>
+      </c>
+      <c r="E92">
+        <v>0.1039966592537998</v>
+      </c>
+      <c r="F92">
+        <v>-0.01782271313952373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1481127571120256</v>
+        <v>-0.1593080961816322</v>
       </c>
       <c r="C93">
-        <v>-0.02795819019701002</v>
+        <v>0.03488315280913213</v>
       </c>
       <c r="D93">
-        <v>-0.2600625306832322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2586817822562668</v>
+      </c>
+      <c r="E93">
+        <v>0.07181730213127502</v>
+      </c>
+      <c r="F93">
+        <v>0.007114930394632234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1311255099597718</v>
+        <v>-0.123590106126039</v>
       </c>
       <c r="C94">
-        <v>-0.03030558303432685</v>
+        <v>0.02703126670537335</v>
       </c>
       <c r="D94">
-        <v>0.04076807198875169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04488937968721206</v>
+      </c>
+      <c r="E94">
+        <v>-0.06051552923902267</v>
+      </c>
+      <c r="F94">
+        <v>0.02865400637705769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1262806792658619</v>
+        <v>-0.1284790470143334</v>
       </c>
       <c r="C95">
-        <v>-0.01242978132087172</v>
+        <v>0.006849500994071555</v>
       </c>
       <c r="D95">
-        <v>0.09024060086766071</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1008312900307258</v>
+      </c>
+      <c r="E95">
+        <v>-0.06182514078569879</v>
+      </c>
+      <c r="F95">
+        <v>0.001227647094206418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1485670516044122</v>
+        <v>-0.1365240501994728</v>
       </c>
       <c r="C96">
-        <v>0.9831203608151839</v>
+        <v>-0.9837211150936014</v>
       </c>
       <c r="D96">
-        <v>-0.02539985571276197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05476905110849418</v>
+      </c>
+      <c r="E96">
+        <v>-0.05068426692112366</v>
+      </c>
+      <c r="F96">
+        <v>0.04115691470479175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1895018906451043</v>
+        <v>-0.1928989348298759</v>
       </c>
       <c r="C97">
-        <v>-0.0008905702823191442</v>
+        <v>-0.0003789756650680554</v>
       </c>
       <c r="D97">
-        <v>-0.02467388414402417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02787359810330434</v>
+      </c>
+      <c r="E97">
+        <v>-0.02503878649479725</v>
+      </c>
+      <c r="F97">
+        <v>-0.1140763749698643</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1971359903593835</v>
+        <v>-0.2028995703317349</v>
       </c>
       <c r="C98">
-        <v>-0.01580088063448142</v>
+        <v>0.01105360519152778</v>
       </c>
       <c r="D98">
-        <v>0.008040725692120559</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0112715238558087</v>
+      </c>
+      <c r="E98">
+        <v>0.07581228383486321</v>
+      </c>
+      <c r="F98">
+        <v>-0.1011596349052264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05691360036677481</v>
+        <v>-0.05651955392065191</v>
       </c>
       <c r="C99">
-        <v>0.0007767511045197313</v>
+        <v>-0.002896567322080143</v>
       </c>
       <c r="D99">
-        <v>0.03806284220701034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04312282141375631</v>
+      </c>
+      <c r="E99">
+        <v>-0.0252694534150628</v>
+      </c>
+      <c r="F99">
+        <v>0.001207495225202403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1464540409534924</v>
+        <v>-0.1330881039173204</v>
       </c>
       <c r="C100">
-        <v>0.03509446321583224</v>
+        <v>-0.0474777149358778</v>
       </c>
       <c r="D100">
-        <v>0.3958911063152542</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3591847329388762</v>
+      </c>
+      <c r="E100">
+        <v>0.8866129108081671</v>
+      </c>
+      <c r="F100">
+        <v>-0.1183983039550043</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02497002980290204</v>
+        <v>-0.02759216692824751</v>
       </c>
       <c r="C101">
-        <v>-0.009651431347871827</v>
+        <v>0.008993457924494823</v>
       </c>
       <c r="D101">
-        <v>0.02978637839272691</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02989849590339199</v>
+      </c>
+      <c r="E101">
+        <v>-0.01619296673885944</v>
+      </c>
+      <c r="F101">
+        <v>-0.01547462341779094</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
